--- a/scRNAseq_Markers_Brain.xlsx
+++ b/scRNAseq_Markers_Brain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mctools-my.sharepoint.com/personal/bembenek_brianna_mayo_edu/Documents/Documents/Offer Lab Rotation 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{94B4EB9A-1463-496B-B1D1-DA825732DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515A7FBE-09B8-4809-AD29-3DFB6F6A583B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{94B4EB9A-1463-496B-B1D1-DA825732DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B420E8CA-1C85-4613-9B54-9429603A6E8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{823E6C70-1B47-4D45-B9DE-EF5531EBE8D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>tissueType</t>
   </si>
@@ -71,12 +71,6 @@
     <t>TH,SLC6A3,FOXA2,KCNJ6,NR4A2,LMX1B,DBH,SLC6A2,PPP1R1B</t>
   </si>
   <si>
-    <t>Endothelial cells</t>
-  </si>
-  <si>
-    <t>PECAM1,VWF,A2M,APOLD1,FLT1,TM4SF1,CD34,MCAM,ENG,PTPRC,VCAM1,CDH5</t>
-  </si>
-  <si>
     <t>GABAergic neurons</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>DCX,NEUROD1,TBR1,STMN1,NCAM1,TUBB3</t>
   </si>
   <si>
-    <t>Immune system cells</t>
-  </si>
-  <si>
-    <t>MS4A1,CCR6,CXCR3,CD4,IL2RA,ISG20,TNFRSF8</t>
-  </si>
-  <si>
     <t>Mature neurons</t>
   </si>
   <si>
@@ -141,12 +129,6 @@
   </si>
   <si>
     <t>NES,SOX2,NOTCH1,HES1,HES3,CDH1,OCLN,SOX10</t>
-  </si>
-  <si>
-    <t>Non myelinating Schwann cells</t>
-  </si>
-  <si>
-    <t>SOX10,GAP43,NCAM1,NGFR</t>
   </si>
   <si>
     <t>Oligodendrocyte precursor cells</t>
@@ -539,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0302768C-CBE2-438A-A4BF-E3715D58CD8A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,48 +784,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scRNAseq_Markers_Brain.xlsx
+++ b/scRNAseq_Markers_Brain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mctools-my.sharepoint.com/personal/bembenek_brianna_mayo_edu/Documents/Documents/Offer Lab Rotation 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{94B4EB9A-1463-496B-B1D1-DA825732DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B420E8CA-1C85-4613-9B54-9429603A6E8F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{94B4EB9A-1463-496B-B1D1-DA825732DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09CE6534-A8B7-4248-BB88-8560AB05D67A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{823E6C70-1B47-4D45-B9DE-EF5531EBE8D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>tissueType</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>P2RY12,ITGAM,CD40,PTPRC,CD68,AIF1,CX3CR1,TMEM119,ADGRE1,C1QA,NOS2,TNF,ISYNA1,CCL4,ADORA3,ADRB2,BHLHE41,BIN1,KLF2,NAV3,RHOB,SALL1,SIGLEC8,SLC1A3,SPRY1,TAL1</t>
-  </si>
-  <si>
-    <t>Myelinating Schwann cells</t>
-  </si>
-  <si>
-    <t>SOX10,EGR2,MBP,MPZ</t>
   </si>
   <si>
     <t>Neural Progenitor cells</t>
@@ -521,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0302768C-CBE2-438A-A4BF-E3715D58CD8A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,20 +764,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
